--- a/bases/UPDATE/SCN/Gasto de consumo privado.xlsx
+++ b/bases/UPDATE/SCN/Gasto de consumo privado.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="5978"/>
   </bookViews>
   <sheets>
     <sheet name="Gasto de consumo privado" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Gasto_de_consumo_privado" localSheetId="0">'Gasto de consumo privado'!$A$1:$H$28</definedName>
+    <definedName name="Gasto_de_consumo_privado" localSheetId="0">'Gasto de consumo privado'!$A$1:$H$29</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,7 +23,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\Gasto de consumo privado.IQY" name="Gasto de consumo privado" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\Gasto de consumo privado.IQY" name="Gasto de consumo privado" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=2003&amp;aamax=9999&amp;cveser=,501038,501039,501040,501041,501042,501043,501044,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -96,7 +96,7 @@
   </si>
   <si>
     <r>
-      <t>2020</t>
+      <t>2021</t>
     </r>
     <r>
       <rPr>
@@ -126,7 +126,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A partir de 2020</t>
+      <t xml:space="preserve"> A partir de 2021</t>
     </r>
   </si>
   <si>
@@ -145,7 +145,7 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 01/12/2021 9:53:35</t>
+    <t>Fecha de consulta: 03/01/2023 19:25:39</t>
   </si>
 </sst>
 </file>
@@ -977,14 +977,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="19.9296875" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -1464,78 +1464,92 @@
         <v>2019</v>
       </c>
       <c r="B20" s="1">
-        <v>15866221.011</v>
+        <v>15866448.043</v>
       </c>
       <c r="C20" s="1">
-        <v>1442515.175</v>
+        <v>1443156.5160000001</v>
       </c>
       <c r="D20" s="1">
-        <v>1505123.602</v>
+        <v>1505121.1159999999</v>
       </c>
       <c r="E20" s="1">
-        <v>6202800.5329999998</v>
+        <v>6202686.4460000005</v>
       </c>
       <c r="F20" s="1">
-        <v>6998486.7039999999</v>
+        <v>6998188.9680000003</v>
       </c>
       <c r="G20" s="1">
-        <v>16148926.014</v>
+        <v>16149153.046</v>
       </c>
       <c r="H20" s="1">
         <v>-282705.00300000003</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="1">
+        <v>14776716.994999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1270495.531</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1340244.8910000001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6128765.9000000004</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6191926.6900000004</v>
+      </c>
+      <c r="G21" s="1">
+        <v>14931433.012</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-154716.01699999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1">
-        <v>14740176.716</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1263102.69</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1325072.9720000001</v>
-      </c>
-      <c r="E21" s="1">
-        <v>6125578.9369999999</v>
-      </c>
-      <c r="F21" s="1">
-        <v>6179544.8729999997</v>
-      </c>
-      <c r="G21" s="1">
-        <v>14893299.471999999</v>
-      </c>
-      <c r="H21" s="1">
-        <v>-153122.75599999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="B22" s="1">
+        <v>16846324.675000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1500345.003</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1598040.4609999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7197014.8289999999</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6847703.6189999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>17143103.912</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-296779.23700000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1547,7 +1561,7 @@
     </row>
     <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1557,27 +1571,39 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
+    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="1"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A22:H22"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
